--- a/ar1.xlsx
+++ b/ar1.xlsx
@@ -378,13 +378,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09698873066568559</v>
+        <v>0.1831944722881327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1328174467423007</v>
+        <v>0.04429341463183867</v>
       </c>
       <c r="E2" t="n">
-        <v>0.584325562401926</v>
+        <v>0.2603791776828435</v>
       </c>
     </row>
     <row r="3">
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9639988021070259</v>
+        <v>0.07354921245638879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6204839790649345</v>
+        <v>0.1451621806139535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7215334415853583</v>
+        <v>0.3378236949304282</v>
       </c>
     </row>
     <row r="4">
@@ -420,13 +420,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9142731260480235</v>
+        <v>0.5140503535480559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2221572838649597</v>
+        <v>0.7738762166124983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7551033635468183</v>
+        <v>0.1778277411902804</v>
       </c>
     </row>
     <row r="5">
@@ -441,13 +441,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.118765898949006</v>
+        <v>0.04812471609263469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2558484463390833</v>
+        <v>0.4372860710202552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9936126184970845</v>
+        <v>0.0266144070951404</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02518329049972723</v>
+        <v>0.1622413097994405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5081468377363142</v>
+        <v>0.8164297880401218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3574920183825036</v>
+        <v>0.2471189745357338</v>
       </c>
     </row>
     <row r="7">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4446340570501159</v>
+        <v>0.1154468374321959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3357471980792093</v>
+        <v>0.3985122619810699</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1309681293648562</v>
+        <v>0.1252276747800244</v>
       </c>
     </row>
   </sheetData>

--- a/ar1.xlsx
+++ b/ar1.xlsx
@@ -378,13 +378,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1831944722881327</v>
+        <v>0.3500325073257973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04429341463183867</v>
+        <v>0.158191883877403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2603791776828435</v>
+        <v>0.3274827726717077</v>
       </c>
     </row>
     <row r="3">
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.07354921245638879</v>
+        <v>0.3774461203634958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1451621806139535</v>
+        <v>0.5571164401790012</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3378236949304282</v>
+        <v>0.5952194591149239</v>
       </c>
     </row>
     <row r="4">
@@ -420,13 +420,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5140503535480559</v>
+        <v>0.4336256461158549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7738762166124983</v>
+        <v>0.1819127873770161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1778277411902804</v>
+        <v>0.9821723310096849</v>
       </c>
     </row>
     <row r="5">
@@ -441,13 +441,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04812471609263469</v>
+        <v>0.5429663211417292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4372860710202552</v>
+        <v>0.9525041299756715</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0266144070951404</v>
+        <v>0.1622958382273703</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1622413097994405</v>
+        <v>0.5265720152483299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8164297880401218</v>
+        <v>0.9453983548596427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2471189745357338</v>
+        <v>0.8259890900785103</v>
       </c>
     </row>
     <row r="7">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1154468374321959</v>
+        <v>0.7070518374512791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3985122619810699</v>
+        <v>0.7672177513129805</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1252276747800244</v>
+        <v>0.2173271831140726</v>
       </c>
     </row>
   </sheetData>

--- a/ar1.xlsx
+++ b/ar1.xlsx
@@ -378,13 +378,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3500325073257973</v>
+        <v>0.02397195310929245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.158191883877403</v>
+        <v>0.2059413979392988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3274827726717077</v>
+        <v>0.3494160975156683</v>
       </c>
     </row>
     <row r="3">
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3774461203634958</v>
+        <v>0.754147848194236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5571164401790012</v>
+        <v>0.382976587650758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5952194591149239</v>
+        <v>0.03337512156943967</v>
       </c>
     </row>
     <row r="4">
@@ -420,13 +420,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4336256461158549</v>
+        <v>0.9490814321324719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1819127873770161</v>
+        <v>0.1615256930238321</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9821723310096849</v>
+        <v>0.08172325437723582</v>
       </c>
     </row>
     <row r="5">
@@ -441,13 +441,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5429663211417292</v>
+        <v>0.4926470576851303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9525041299756715</v>
+        <v>0.7187075590320299</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1622958382273703</v>
+        <v>0.8814058488325429</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5265720152483299</v>
+        <v>0.1351578606999337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9453983548596427</v>
+        <v>0.989909819521922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8259890900785103</v>
+        <v>0.9774488424916804</v>
       </c>
     </row>
     <row r="7">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7070518374512791</v>
+        <v>0.4770191332620297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7672177513129805</v>
+        <v>0.6940144964056626</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2173271831140726</v>
+        <v>0.6300210284333895</v>
       </c>
     </row>
   </sheetData>
